--- a/Week-2/RoSA/VendorItems.xlsx
+++ b/Week-2/RoSA/VendorItems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Dan-Vega-Code\Week-2\RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F7600-F1F6-428D-BA57-EDBA854FE028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809148D-9DB6-4970-8A6B-C9F51BA49E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="3765" windowWidth="14580" windowHeight="10155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WalMart" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Vendor</t>
   </si>
@@ -50,9 +50,6 @@
     <t>CVS</t>
   </si>
   <si>
-    <t>Meds</t>
-  </si>
-  <si>
     <t>PetSmart</t>
   </si>
   <si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>Chips</t>
+  </si>
+  <si>
+    <t>Advil</t>
+  </si>
+  <si>
+    <t>Tylenol</t>
+  </si>
+  <si>
+    <t>Pain Reliever</t>
   </si>
 </sst>
 </file>
@@ -388,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -447,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE7850-F426-48A9-A048-A61D12A47C29}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +502,41 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>75</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -542,10 +576,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -556,10 +590,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -570,10 +604,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>16</v>
